--- a/進捗ファイル/チームRプロジェクト計画シート_20211019.xlsx
+++ b/進捗ファイル/チームRプロジェクト計画シート_20211019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocsjoho-my.sharepoint.com/personal/ocs_2018007_ocsjoho_onmicrosoft_com/Documents/学校関係/卒業研究(専門学校)用/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9D1B1FDE-D6F0-4440-880A-66EFB9837227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E8D68F5-6C12-4CC3-96A1-42E7059DEF53}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9D1B1FDE-D6F0-4440-880A-66EFB9837227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161380B6-89EF-4C2A-B2CF-62D04D0E5E4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,6 +1131,72 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="40" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="18" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="40" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -1145,72 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="15" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="18" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1552,7 +1552,7 @@
   <dimension ref="B1:AK14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1581,12 +1581,12 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:37" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="8"/>
       <c r="I2" s="18" t="s">
         <v>3</v>
@@ -1621,71 +1621,71 @@
       <c r="AC2" s="16"/>
     </row>
     <row r="3" spans="2:37" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
     </row>
     <row r="4" spans="2:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="37">
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="32">
         <v>18</v>
       </c>
       <c r="I4" s="3">
@@ -1694,7 +1694,7 @@
       <c r="J4" s="3">
         <v>25</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="35">
         <v>28</v>
       </c>
       <c r="L4" s="3">
@@ -1721,7 +1721,7 @@
       <c r="S4" s="3">
         <v>25</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="35">
         <v>29</v>
       </c>
       <c r="U4" s="3">
@@ -1748,7 +1748,7 @@
       <c r="AB4" s="3">
         <v>26</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="35">
         <v>30</v>
       </c>
       <c r="AD4" s="3">
@@ -1777,26 +1777,26 @@
       </c>
     </row>
     <row r="5" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>44487</v>
       </c>
       <c r="D5" s="13">
         <v>7</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>44488</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="36"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -1805,7 +1805,7 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5" s="41"/>
+      <c r="T5" s="36"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -1813,14 +1813,14 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-      <c r="AC5" s="41"/>
+      <c r="AC5" s="36"/>
     </row>
     <row r="6" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="32">
-        <v>44498</v>
+      <c r="C6" s="27">
+        <v>44491</v>
       </c>
       <c r="D6" s="13">
         <v>7</v>
@@ -1830,43 +1830,43 @@
       <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
     </row>
     <row r="7" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="32">
-        <v>44507</v>
+      <c r="C7" s="27">
+        <v>44498</v>
       </c>
       <c r="D7" s="13">
         <v>7</v>
@@ -1876,19 +1876,19 @@
       <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="34"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="36"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" s="41"/>
+      <c r="T7" s="36"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -1896,14 +1896,14 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
-      <c r="AC7" s="41"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32">
-        <v>44514</v>
+      <c r="C8" s="27">
+        <v>44507</v>
       </c>
       <c r="D8" s="13">
         <v>8</v>
@@ -1913,43 +1913,43 @@
       <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
     </row>
     <row r="9" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32">
-        <v>44522</v>
+      <c r="C9" s="27">
+        <v>44514</v>
       </c>
       <c r="D9" s="13">
         <v>8</v>
@@ -1959,10 +1959,10 @@
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="34"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="36"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -1971,21 +1971,21 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="33"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="28"/>
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
-      <c r="AC9" s="41"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="27">
         <v>44531</v>
       </c>
       <c r="D10" s="13">
@@ -1996,42 +1996,42 @@
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
     </row>
     <row r="11" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="27">
         <v>44542</v>
       </c>
       <c r="D11" s="13">
@@ -2042,10 +2042,10 @@
       <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="34"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="36"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -2054,26 +2054,26 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11" s="41"/>
+      <c r="T11" s="36"/>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
     </row>
     <row r="12" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="27">
         <v>44210</v>
       </c>
       <c r="D12" s="13">
@@ -2084,42 +2084,42 @@
       <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
     </row>
     <row r="13" spans="2:37" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="27">
         <v>44197</v>
       </c>
       <c r="D13" s="13">
@@ -2130,10 +2130,10 @@
       <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="39"/>
+      <c r="H13" s="34"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="36"/>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -2142,7 +2142,7 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13" s="41"/>
+      <c r="T13" s="36"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -2150,15 +2150,15 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
     </row>
     <row r="14" spans="2:37" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2226,177 +2226,177 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" style="26"/>
-    <col min="2" max="2" width="12.88671875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="13" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="40.5546875" style="26"/>
+    <col min="1" max="1" width="40.5546875" style="21"/>
+    <col min="2" max="2" width="12.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="40.5546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="23">
         <v>44491</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="23">
         <v>44501</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="23">
         <v>44498</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="23">
         <v>44507</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="23">
         <v>44507</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="23">
         <v>44514</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <v>44521</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="23">
         <v>44535</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="23">
         <v>44545</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="23">
         <v>44197</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <v>44206</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="23">
         <v>44216</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="23">
         <v>44227</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="23">
         <v>44217</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="23">
         <v>44228</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="22" t="s">
         <v>15</v>
       </c>
     </row>
